--- a/biology/Botanique/Chêne_de_Hersberg/Chêne_de_Hersberg.xlsx
+++ b/biology/Botanique/Chêne_de_Hersberg/Chêne_de_Hersberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Hersberg</t>
+          <t>Chêne_de_Hersberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chêne de Hersberg, ou chêne d'Altrier, est un chêne pédonculé (Quercus robur) classé parmi les arbres remarquables du Luxembourg. L'arbre, dont le tronc héberge une statue de la sainte Vierge, est un lieu de pèlerinage marial, local et transfrontalier. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Hersberg</t>
+          <t>Chêne_de_Hersberg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Religion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque année, au soir du 15 août (fête de l'Assomption), une procession aux flambeaux se rend au son des cloches auprès du Bildchen, où une messe solennelle est ensuite célébrée.
 Le nom luxembourgeois du site, Heeschbrecher Bildchen, fait référence à la statue de la Vierge (Bildchen) installée dans le creux du tronc de l'arbre.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Hersberg</t>
+          <t>Chêne_de_Hersberg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’évolution de la circonférence de l'arbre (mesures prises à hauteur de poitrine, à 1,30 m du sol) est la suivante :
 1907 : 5,74 m
 1958 : 6,87 m
 1997 : 7,40 m
-vers 2000 : 7,41 m[1]</t>
+vers 2000 : 7,41 m</t>
         </is>
       </c>
     </row>
